--- a/zhonghui/新本币/1.4.7/147技术测试.xlsx
+++ b/zhonghui/新本币/1.4.7/147技术测试.xlsx
@@ -3232,6 +3232,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>SQL耗时：</t>
     </r>
     <r>
@@ -3366,7 +3372,7 @@
     <t>常用组件测试：无异常</t>
   </si>
   <si>
-    <t>（11）生产问题：条件不足，无法判断</t>
+    <t>（11）生产问题：部分通过</t>
   </si>
   <si>
     <t>PB20004608：UAT1连接数统计：3108(tbs)</t>
@@ -8727,10 +8733,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="87">
     <font>
@@ -9139,60 +9145,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9206,31 +9160,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9252,9 +9183,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9264,6 +9231,45 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9424,7 +9430,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9436,7 +9496,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9448,121 +9574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9574,19 +9592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9807,11 +9813,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9833,6 +9869,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -9845,32 +9890,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9889,21 +9910,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -9912,10 +9918,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9924,16 +9930,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9945,112 +9951,112 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -38021,8 +38027,8 @@
   </sheetPr>
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
